--- a/Project timeline.xlsx
+++ b/Project timeline.xlsx
@@ -839,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1106,6 +1106,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="38" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2280,13 +2283,13 @@
       <c r="U17" s="103"/>
       <c r="V17" s="103"/>
       <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="53"/>
       <c r="AE17" s="103"/>
       <c r="AF17" s="103"/>
       <c r="AG17" s="103"/>
@@ -2322,51 +2325,51 @@
         <v>28</v>
       </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
-      <c r="AY18" s="106"/>
-      <c r="AZ18" s="106"/>
-      <c r="BA18" s="106"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="107"/>
+      <c r="AY18" s="107"/>
+      <c r="AZ18" s="107"/>
+      <c r="BA18" s="107"/>
       <c r="BB18" s="65"/>
       <c r="BC18" s="57"/>
       <c r="BD18" s="31"/>
@@ -2379,51 +2382,51 @@
         <v>29</v>
       </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
-      <c r="AY19" s="106"/>
-      <c r="AZ19" s="106"/>
-      <c r="BA19" s="106"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="107"/>
+      <c r="AJ19" s="107"/>
+      <c r="AK19" s="107"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="107"/>
+      <c r="AY19" s="107"/>
+      <c r="AZ19" s="107"/>
+      <c r="BA19" s="107"/>
       <c r="BB19" s="65"/>
       <c r="BC19" s="57"/>
       <c r="BD19" s="31"/>
@@ -2436,51 +2439,51 @@
         <v>30</v>
       </c>
       <c r="H20" s="50"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="109"/>
-      <c r="AM20" s="109"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
-      <c r="AQ20" s="109"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
-      <c r="AV20" s="109"/>
-      <c r="AW20" s="109"/>
-      <c r="AX20" s="109"/>
-      <c r="AY20" s="109"/>
-      <c r="AZ20" s="109"/>
-      <c r="BA20" s="109"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="110"/>
+      <c r="AN20" s="110"/>
+      <c r="AO20" s="110"/>
+      <c r="AP20" s="110"/>
+      <c r="AQ20" s="110"/>
+      <c r="AR20" s="110"/>
+      <c r="AS20" s="110"/>
+      <c r="AT20" s="110"/>
+      <c r="AU20" s="110"/>
+      <c r="AV20" s="110"/>
+      <c r="AW20" s="110"/>
+      <c r="AX20" s="110"/>
+      <c r="AY20" s="110"/>
+      <c r="AZ20" s="110"/>
+      <c r="BA20" s="110"/>
       <c r="BB20" s="65"/>
       <c r="BC20" s="57"/>
       <c r="BD20" s="31"/>
@@ -2488,59 +2491,59 @@
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="31"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="112" t="s">
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116"/>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="116"/>
-      <c r="AO21" s="116"/>
-      <c r="AP21" s="116"/>
-      <c r="AQ21" s="116"/>
-      <c r="AR21" s="116"/>
-      <c r="AS21" s="116"/>
-      <c r="AT21" s="116"/>
-      <c r="AU21" s="116"/>
-      <c r="AV21" s="116"/>
-      <c r="AW21" s="116"/>
-      <c r="AX21" s="116"/>
-      <c r="AY21" s="116"/>
-      <c r="AZ21" s="116"/>
-      <c r="BA21" s="116"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="117"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="117"/>
+      <c r="AR21" s="117"/>
+      <c r="AS21" s="117"/>
+      <c r="AT21" s="117"/>
+      <c r="AU21" s="117"/>
+      <c r="AV21" s="117"/>
+      <c r="AW21" s="117"/>
+      <c r="AX21" s="117"/>
+      <c r="AY21" s="117"/>
+      <c r="AZ21" s="117"/>
+      <c r="BA21" s="117"/>
       <c r="BB21" s="65"/>
       <c r="BC21" s="57"/>
       <c r="BD21" s="31"/>
@@ -2548,14 +2551,14 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="31"/>
-      <c r="B22" s="117">
+      <c r="B22" s="118">
         <v>4.0</v>
       </c>
       <c r="C22" s="47"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="119" t="s">
+      <c r="G22" s="120" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="50"/>
@@ -2612,55 +2615,55 @@
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="31"/>
       <c r="C23" s="47"/>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="120" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="50"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="106"/>
-      <c r="AL23" s="106"/>
-      <c r="AM23" s="106"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="106"/>
-      <c r="AP23" s="106"/>
-      <c r="AQ23" s="106"/>
-      <c r="AR23" s="106"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="106"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="106"/>
-      <c r="AY23" s="106"/>
-      <c r="AZ23" s="106"/>
-      <c r="BA23" s="106"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="107"/>
+      <c r="AJ23" s="107"/>
+      <c r="AK23" s="107"/>
+      <c r="AL23" s="107"/>
+      <c r="AM23" s="107"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="107"/>
+      <c r="AQ23" s="107"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="107"/>
+      <c r="AT23" s="107"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="107"/>
+      <c r="AW23" s="107"/>
+      <c r="AX23" s="107"/>
+      <c r="AY23" s="107"/>
+      <c r="AZ23" s="107"/>
+      <c r="BA23" s="107"/>
       <c r="BB23" s="65"/>
       <c r="BC23" s="57"/>
       <c r="BD23" s="31"/>
@@ -2669,55 +2672,55 @@
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="31"/>
       <c r="C24" s="47"/>
-      <c r="G24" s="119" t="s">
+      <c r="G24" s="120" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="50"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="106"/>
-      <c r="AN24" s="106"/>
-      <c r="AO24" s="106"/>
-      <c r="AP24" s="106"/>
-      <c r="AQ24" s="106"/>
-      <c r="AR24" s="106"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="106"/>
-      <c r="AY24" s="106"/>
-      <c r="AZ24" s="106"/>
-      <c r="BA24" s="106"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="107"/>
+      <c r="AJ24" s="107"/>
+      <c r="AK24" s="107"/>
+      <c r="AL24" s="107"/>
+      <c r="AM24" s="107"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="107"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="107"/>
+      <c r="AW24" s="107"/>
+      <c r="AX24" s="107"/>
+      <c r="AY24" s="107"/>
+      <c r="AZ24" s="107"/>
+      <c r="BA24" s="107"/>
       <c r="BB24" s="65"/>
       <c r="BC24" s="57"/>
       <c r="BD24" s="31"/>
@@ -2725,59 +2728,59 @@
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="31"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122" t="s">
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="126"/>
-      <c r="AJ25" s="126"/>
-      <c r="AK25" s="126"/>
-      <c r="AL25" s="126"/>
-      <c r="AM25" s="126"/>
-      <c r="AN25" s="126"/>
-      <c r="AO25" s="126"/>
-      <c r="AP25" s="126"/>
-      <c r="AQ25" s="126"/>
-      <c r="AR25" s="126"/>
-      <c r="AS25" s="126"/>
-      <c r="AT25" s="126"/>
-      <c r="AU25" s="126"/>
-      <c r="AV25" s="126"/>
-      <c r="AW25" s="126"/>
-      <c r="AX25" s="126"/>
-      <c r="AY25" s="126"/>
-      <c r="AZ25" s="126"/>
-      <c r="BA25" s="126"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="127"/>
+      <c r="AJ25" s="127"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="127"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="127"/>
+      <c r="AR25" s="127"/>
+      <c r="AS25" s="127"/>
+      <c r="AT25" s="127"/>
+      <c r="AU25" s="127"/>
+      <c r="AV25" s="127"/>
+      <c r="AW25" s="127"/>
+      <c r="AX25" s="127"/>
+      <c r="AY25" s="127"/>
+      <c r="AZ25" s="127"/>
+      <c r="BA25" s="127"/>
       <c r="BB25" s="65"/>
       <c r="BC25" s="57"/>
       <c r="BD25" s="31"/>
@@ -2785,14 +2788,14 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="31"/>
-      <c r="B26" s="127">
+      <c r="B26" s="128">
         <v>5.0</v>
       </c>
       <c r="C26" s="47"/>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="129" t="s">
+      <c r="G26" s="130" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="50"/>
@@ -2849,55 +2852,55 @@
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="31"/>
       <c r="C27" s="47"/>
-      <c r="G27" s="129" t="s">
+      <c r="G27" s="130" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="50"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="106"/>
-      <c r="AM27" s="106"/>
-      <c r="AN27" s="106"/>
-      <c r="AO27" s="106"/>
-      <c r="AP27" s="106"/>
-      <c r="AQ27" s="106"/>
-      <c r="AR27" s="106"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="106"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="106"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="106"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="107"/>
+      <c r="AJ27" s="107"/>
+      <c r="AK27" s="107"/>
+      <c r="AL27" s="107"/>
+      <c r="AM27" s="107"/>
+      <c r="AN27" s="107"/>
+      <c r="AO27" s="107"/>
+      <c r="AP27" s="107"/>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="107"/>
+      <c r="AS27" s="107"/>
+      <c r="AT27" s="107"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="107"/>
+      <c r="AX27" s="107"/>
+      <c r="AY27" s="107"/>
+      <c r="AZ27" s="107"/>
+      <c r="BA27" s="107"/>
       <c r="BB27" s="65"/>
       <c r="BC27" s="57"/>
       <c r="BD27" s="31"/>
@@ -2906,55 +2909,55 @@
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="31"/>
       <c r="C28" s="47"/>
-      <c r="G28" s="129" t="s">
+      <c r="G28" s="130" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="50"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="106"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="106"/>
-      <c r="AN28" s="106"/>
-      <c r="AO28" s="106"/>
-      <c r="AP28" s="106"/>
-      <c r="AQ28" s="106"/>
-      <c r="AR28" s="106"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="106"/>
-      <c r="AU28" s="106"/>
-      <c r="AV28" s="106"/>
-      <c r="AW28" s="106"/>
-      <c r="AX28" s="106"/>
-      <c r="AY28" s="106"/>
-      <c r="AZ28" s="106"/>
-      <c r="BA28" s="106"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="107"/>
+      <c r="AJ28" s="107"/>
+      <c r="AK28" s="107"/>
+      <c r="AL28" s="107"/>
+      <c r="AM28" s="107"/>
+      <c r="AN28" s="107"/>
+      <c r="AO28" s="107"/>
+      <c r="AP28" s="107"/>
+      <c r="AQ28" s="107"/>
+      <c r="AR28" s="107"/>
+      <c r="AS28" s="107"/>
+      <c r="AT28" s="107"/>
+      <c r="AU28" s="107"/>
+      <c r="AV28" s="107"/>
+      <c r="AW28" s="107"/>
+      <c r="AX28" s="107"/>
+      <c r="AY28" s="107"/>
+      <c r="AZ28" s="107"/>
+      <c r="BA28" s="107"/>
       <c r="BB28" s="65"/>
       <c r="BC28" s="57"/>
       <c r="BD28" s="31"/>
@@ -2962,178 +2965,178 @@
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="31"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="136"/>
-      <c r="AJ29" s="136"/>
-      <c r="AK29" s="136"/>
-      <c r="AL29" s="136"/>
-      <c r="AM29" s="136"/>
-      <c r="AN29" s="136"/>
-      <c r="AO29" s="136"/>
-      <c r="AP29" s="136"/>
-      <c r="AQ29" s="136"/>
-      <c r="AR29" s="136"/>
-      <c r="AS29" s="136"/>
-      <c r="AT29" s="136"/>
-      <c r="AU29" s="136"/>
-      <c r="AV29" s="136"/>
-      <c r="AW29" s="136"/>
-      <c r="AX29" s="136"/>
-      <c r="AY29" s="136"/>
-      <c r="AZ29" s="136"/>
-      <c r="BA29" s="136"/>
-      <c r="BB29" s="136"/>
-      <c r="BC29" s="136"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+      <c r="AJ29" s="137"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="137"/>
+      <c r="AM29" s="137"/>
+      <c r="AN29" s="137"/>
+      <c r="AO29" s="137"/>
+      <c r="AP29" s="137"/>
+      <c r="AQ29" s="137"/>
+      <c r="AR29" s="137"/>
+      <c r="AS29" s="137"/>
+      <c r="AT29" s="137"/>
+      <c r="AU29" s="137"/>
+      <c r="AV29" s="137"/>
+      <c r="AW29" s="137"/>
+      <c r="AX29" s="137"/>
+      <c r="AY29" s="137"/>
+      <c r="AZ29" s="137"/>
+      <c r="BA29" s="137"/>
+      <c r="BB29" s="137"/>
+      <c r="BC29" s="137"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="31"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="136"/>
-      <c r="T30" s="136"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="136"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="136"/>
-      <c r="AK30" s="136"/>
-      <c r="AL30" s="136"/>
-      <c r="AM30" s="136"/>
-      <c r="AN30" s="136"/>
-      <c r="AO30" s="136"/>
-      <c r="AP30" s="136"/>
-      <c r="AQ30" s="136"/>
-      <c r="AR30" s="136"/>
-      <c r="AS30" s="136"/>
-      <c r="AT30" s="136"/>
-      <c r="AU30" s="136"/>
-      <c r="AV30" s="136"/>
-      <c r="AW30" s="136"/>
-      <c r="AX30" s="136"/>
-      <c r="AY30" s="136"/>
-      <c r="AZ30" s="136"/>
-      <c r="BA30" s="136"/>
-      <c r="BB30" s="136"/>
-      <c r="BC30" s="136"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="137"/>
+      <c r="AM30" s="137"/>
+      <c r="AN30" s="137"/>
+      <c r="AO30" s="137"/>
+      <c r="AP30" s="137"/>
+      <c r="AQ30" s="137"/>
+      <c r="AR30" s="137"/>
+      <c r="AS30" s="137"/>
+      <c r="AT30" s="137"/>
+      <c r="AU30" s="137"/>
+      <c r="AV30" s="137"/>
+      <c r="AW30" s="137"/>
+      <c r="AX30" s="137"/>
+      <c r="AY30" s="137"/>
+      <c r="AZ30" s="137"/>
+      <c r="BA30" s="137"/>
+      <c r="BB30" s="137"/>
+      <c r="BC30" s="137"/>
       <c r="BD30" s="31"/>
       <c r="BE30" s="31"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="31"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="136"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="136"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="136"/>
-      <c r="AJ31" s="136"/>
-      <c r="AK31" s="136"/>
-      <c r="AL31" s="136"/>
-      <c r="AM31" s="136"/>
-      <c r="AN31" s="136"/>
-      <c r="AO31" s="136"/>
-      <c r="AP31" s="136"/>
-      <c r="AQ31" s="136"/>
-      <c r="AR31" s="136"/>
-      <c r="AS31" s="136"/>
-      <c r="AT31" s="136"/>
-      <c r="AU31" s="136"/>
-      <c r="AV31" s="136"/>
-      <c r="AW31" s="136"/>
-      <c r="AX31" s="136"/>
-      <c r="AY31" s="136"/>
-      <c r="AZ31" s="136"/>
-      <c r="BA31" s="136"/>
-      <c r="BB31" s="136"/>
-      <c r="BC31" s="136"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="137"/>
+      <c r="AL31" s="137"/>
+      <c r="AM31" s="137"/>
+      <c r="AN31" s="137"/>
+      <c r="AO31" s="137"/>
+      <c r="AP31" s="137"/>
+      <c r="AQ31" s="137"/>
+      <c r="AR31" s="137"/>
+      <c r="AS31" s="137"/>
+      <c r="AT31" s="137"/>
+      <c r="AU31" s="137"/>
+      <c r="AV31" s="137"/>
+      <c r="AW31" s="137"/>
+      <c r="AX31" s="137"/>
+      <c r="AY31" s="137"/>
+      <c r="AZ31" s="137"/>
+      <c r="BA31" s="137"/>
+      <c r="BB31" s="137"/>
+      <c r="BC31" s="137"/>
       <c r="BD31" s="31"/>
       <c r="BE31" s="31"/>
     </row>
@@ -3145,7 +3148,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="137"/>
+      <c r="H32" s="138"/>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
@@ -3204,7 +3207,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="137"/>
+      <c r="H33" s="138"/>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
@@ -3263,7 +3266,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="137"/>
+      <c r="H34" s="138"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
@@ -3315,7 +3318,7 @@
       <c r="BE34" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
     <mergeCell ref="AY8:BA8"/>
     <mergeCell ref="BB8:BC8"/>
     <mergeCell ref="AS8:AU8"/>
@@ -3371,6 +3374,7 @@
     <mergeCell ref="X14:Z14"/>
     <mergeCell ref="X16:Z16"/>
     <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X17:AD17"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="O11:W11"/>
     <mergeCell ref="B12:B16"/>
